--- a/data/trans_dic/P16A_2_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1916316443728722</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3046291673085085</v>
+        <v>0.3046291673085084</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2447477866534381</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1580150700866727</v>
+        <v>0.159692027467042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2680838168657809</v>
+        <v>0.2688635481786334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2203846968939601</v>
+        <v>0.2202961615550829</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2276934636304196</v>
+        <v>0.2271205493942306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3404141052038954</v>
+        <v>0.3384278643418297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.26947179155767</v>
+        <v>0.270327542378153</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.160814133314327</v>
+        <v>0.1588622298895566</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2791666084162195</v>
+        <v>0.2793520771821821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2242689898332139</v>
+        <v>0.2260881278255722</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2352007976802087</v>
+        <v>0.2310932865036026</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.351389237013447</v>
+        <v>0.3566097340545479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777714902056556</v>
+        <v>0.2814128297040831</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.229177695817205</v>
+        <v>0.2349352330620429</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3941581235940282</v>
+        <v>0.3969822146793428</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2887169407227042</v>
+        <v>0.2892553575052686</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3126786562205628</v>
+        <v>0.3186623553307985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5152294485243236</v>
+        <v>0.5217530194303783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3582406336228998</v>
+        <v>0.3621567949687566</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2794114555207549</v>
+        <v>0.2794114555207548</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.3863538660804935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.325621952468872</v>
+        <v>0.3256219524688722</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2525801206182521</v>
+        <v>0.2528297805231748</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3566569163866244</v>
+        <v>0.3575672591370433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3060757869293922</v>
+        <v>0.3061819203861889</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3085257108015899</v>
+        <v>0.3093660439095186</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4143736103580572</v>
+        <v>0.4155595141426899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3470797785617035</v>
+        <v>0.3468619311040961</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2513420971567979</v>
+        <v>0.2513420971567978</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4742277273594119</v>
+        <v>0.4742277273594118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3837289487943711</v>
+        <v>0.383728948794371</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2152283167763333</v>
+        <v>0.2165268048871447</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4418749579454833</v>
+        <v>0.4458818409142467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3608624620339484</v>
+        <v>0.3612909048458927</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2931930268636064</v>
+        <v>0.2945378116434192</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5023632751853793</v>
+        <v>0.5027067782010141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4082216911381699</v>
+        <v>0.4082904779826892</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05833251019492934</v>
+        <v>0.06129506004335552</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3421694812427847</v>
+        <v>0.3437163824548032</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.288104283249233</v>
+        <v>0.2880330078283373</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1848373198526357</v>
+        <v>0.1814246816081419</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.403424627349574</v>
+        <v>0.4052333160052928</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3444231438089598</v>
+        <v>0.3471449847659071</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2214363965205167</v>
+        <v>0.2212467438780089</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3727885193432884</v>
+        <v>0.3736684279079115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3027115308596999</v>
+        <v>0.3034246558780399</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.251697160173166</v>
+        <v>0.252502452390202</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4010763747998479</v>
+        <v>0.4002818426413279</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3241504012603385</v>
+        <v>0.3242278473852865</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>87006</v>
+        <v>87929</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>130935</v>
+        <v>131316</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>228986</v>
+        <v>228894</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>125372</v>
+        <v>125057</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>166262</v>
+        <v>165292</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>279989</v>
+        <v>280878</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>77707</v>
+        <v>76764</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>118127</v>
+        <v>118206</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>203267</v>
+        <v>204916</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>113652</v>
+        <v>111667</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>148688</v>
+        <v>150897</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>251760</v>
+        <v>255060</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>108083</v>
+        <v>110798</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>73903</v>
+        <v>74433</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>190296</v>
+        <v>190651</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>147463</v>
+        <v>150285</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>96604</v>
+        <v>97827</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>236120</v>
+        <v>238701</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>285881</v>
+        <v>286164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>307157</v>
+        <v>307941</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>610026</v>
+        <v>610237</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>349203</v>
+        <v>350154</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>356863</v>
+        <v>357884</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>691749</v>
+        <v>691315</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>122242</v>
+        <v>122979</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>367132</v>
+        <v>370461</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>504779</v>
+        <v>505379</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>166523</v>
+        <v>167287</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>417389</v>
+        <v>417674</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>571026</v>
+        <v>571122</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13838</v>
+        <v>14541</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>288887</v>
+        <v>290193</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>311587</v>
+        <v>311510</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>43849</v>
+        <v>43039</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>340604</v>
+        <v>342131</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>372497</v>
+        <v>375440</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>762289</v>
+        <v>761637</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1355233</v>
+        <v>1358432</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2142553</v>
+        <v>2147600</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>866461</v>
+        <v>869234</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1458070</v>
+        <v>1455182</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2294294</v>
+        <v>2294842</v>
       </c>
     </row>
     <row r="32">
